--- a/foul shooting calc.xlsx
+++ b/foul shooting calc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10193"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10185"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Above the break 3</t>
   </si>
@@ -60,6 +60,48 @@
   </si>
   <si>
     <t>pps</t>
+  </si>
+  <si>
+    <t>therotical player calc</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>ra</t>
+  </si>
+  <si>
+    <t>3s</t>
+  </si>
+  <si>
+    <t>FTM</t>
+  </si>
+  <si>
+    <t>FGA</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>avg ftr</t>
+  </si>
+  <si>
+    <t>theoritical fta</t>
+  </si>
+  <si>
+    <t>FGM</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>"fta above average ratio"</t>
+  </si>
+  <si>
+    <t>allocates fta</t>
+  </si>
+  <si>
+    <t>total points</t>
   </si>
 </sst>
 </file>
@@ -103,9 +145,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,13 +431,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="13.265625" customWidth="1"/>
+    <col min="2" max="2" width="14.73046875" customWidth="1"/>
+    <col min="3" max="3" width="11.46484375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
@@ -571,6 +620,186 @@
         <v>1.1757257566399011</v>
       </c>
     </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <f>B15*B14*3</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="C16">
+        <f>C15*C14*2</f>
+        <v>2.88</v>
+      </c>
+      <c r="D16">
+        <f>D15*D14*2</f>
+        <v>1.76</v>
+      </c>
+      <c r="E16">
+        <f>SUM(B16:D16)</f>
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <f>E13/E16</f>
+        <v>2.5052192066805845</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <f>B16*$E$17</f>
+        <v>0.37578288100208773</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ref="C22:D22" si="2">C16*$E$17</f>
+        <v>7.2150313152400827</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>4.4091858037578291</v>
+      </c>
+      <c r="E22">
+        <f>SUM(B22:D22)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <f>B21+B22</f>
+        <v>6.3757828810020873</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:D23" si="3">C21+C22</f>
+        <v>11.215031315240083</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="3"/>
+        <v>8.4091858037578291</v>
+      </c>
+      <c r="E23">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <f>B23/B14</f>
+        <v>1.5939457202505218</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:D24" si="4">C23/C14</f>
+        <v>1.4018789144050103</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="4"/>
+        <v>2.1022964509394573</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
